--- a/resultados/resultados_221122.xlsx
+++ b/resultados/resultados_221122.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ufranca/Documents/Dropbox/other_projects/FIA-Ajepi/Mundial2022/resultados/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6235AE0-5941-CB49-B746-55C822D06E96}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D7F4DE9-BF14-5D4B-9F3A-9742D3D83943}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="6840" yWindow="500" windowWidth="21960" windowHeight="16640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -529,7 +529,7 @@
   <dimension ref="A1:H348"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A45" workbookViewId="0">
-      <selection activeCell="I62" sqref="I62"/>
+      <selection activeCell="H69" sqref="H69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1813,11 +1813,17 @@
       </c>
       <c r="D53">
         <f>D36+E53</f>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E53">
         <f>3*F53+G53</f>
-        <v>0</v>
+        <v>2</v>
+      </c>
+      <c r="F53">
+        <v>0</v>
+      </c>
+      <c r="G53">
+        <v>2</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.2">
@@ -1832,11 +1838,17 @@
       </c>
       <c r="D54">
         <f t="shared" ref="D54:D69" si="4">D37+E54</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E54">
         <f t="shared" ref="E54:E69" si="5">3*F54+G54</f>
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="F54">
+        <v>0</v>
+      </c>
+      <c r="G54">
+        <v>1</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.2">
@@ -1851,11 +1863,17 @@
       </c>
       <c r="D55">
         <f t="shared" si="4"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E55">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="F55">
+        <v>0</v>
+      </c>
+      <c r="G55">
+        <v>1</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.2">
@@ -1870,11 +1888,17 @@
       </c>
       <c r="D56">
         <f t="shared" si="4"/>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E56">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>2</v>
+      </c>
+      <c r="F56">
+        <v>0</v>
+      </c>
+      <c r="G56">
+        <v>2</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.2">
@@ -1889,11 +1913,17 @@
       </c>
       <c r="D57">
         <f t="shared" si="4"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E57">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>2</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+      <c r="G57">
+        <v>2</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.2">
@@ -1908,11 +1938,17 @@
       </c>
       <c r="D58">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E58">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="F58">
+        <v>0</v>
+      </c>
+      <c r="G58">
+        <v>1</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.2">
@@ -1927,11 +1963,17 @@
       </c>
       <c r="D59">
         <f t="shared" si="4"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E59">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="F59">
+        <v>0</v>
+      </c>
+      <c r="G59">
+        <v>1</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.2">
@@ -1946,11 +1988,17 @@
       </c>
       <c r="D60">
         <f t="shared" si="4"/>
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="E60">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>5</v>
+      </c>
+      <c r="F60">
+        <v>1</v>
+      </c>
+      <c r="G60">
+        <v>2</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.2">
@@ -1965,11 +2013,17 @@
       </c>
       <c r="D61">
         <f t="shared" si="4"/>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E61">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>2</v>
+      </c>
+      <c r="F61">
+        <v>0</v>
+      </c>
+      <c r="G61">
+        <v>2</v>
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.2">
@@ -1984,11 +2038,17 @@
       </c>
       <c r="D62">
         <f t="shared" si="4"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E62">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>2</v>
+      </c>
+      <c r="F62">
+        <v>0</v>
+      </c>
+      <c r="G62">
+        <v>2</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.2">
@@ -2003,11 +2063,17 @@
       </c>
       <c r="D63">
         <f t="shared" si="4"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E63">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="F63">
+        <v>0</v>
+      </c>
+      <c r="G63">
+        <v>1</v>
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.2">
@@ -2022,14 +2088,20 @@
       </c>
       <c r="D64">
         <f t="shared" si="4"/>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E64">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.2">
+        <v>2</v>
+      </c>
+      <c r="F64">
+        <v>0</v>
+      </c>
+      <c r="G64">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>11</v>
       </c>
@@ -2041,14 +2113,20 @@
       </c>
       <c r="D65">
         <f t="shared" si="4"/>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E65">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.2">
+        <v>2</v>
+      </c>
+      <c r="F65">
+        <v>0</v>
+      </c>
+      <c r="G65">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>12</v>
       </c>
@@ -2060,14 +2138,20 @@
       </c>
       <c r="D66">
         <f t="shared" si="4"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E66">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.2">
+        <v>2</v>
+      </c>
+      <c r="F66">
+        <v>0</v>
+      </c>
+      <c r="G66">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>13</v>
       </c>
@@ -2079,14 +2163,20 @@
       </c>
       <c r="D67">
         <f t="shared" si="4"/>
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="E67">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.2">
+        <v>5</v>
+      </c>
+      <c r="F67">
+        <v>1</v>
+      </c>
+      <c r="G67">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>14</v>
       </c>
@@ -2098,14 +2188,20 @@
       </c>
       <c r="D68">
         <f t="shared" si="4"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E68">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+      <c r="F68">
+        <v>0</v>
+      </c>
+      <c r="G68">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>15</v>
       </c>
@@ -2117,11 +2213,17 @@
       </c>
       <c r="D69">
         <f t="shared" si="4"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E69">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="F69">
+        <v>0</v>
+      </c>
+      <c r="G69">
+        <v>1</v>
       </c>
     </row>
     <row r="146" spans="7:7" x14ac:dyDescent="0.2">
